--- a/docs/Journal-de-Travail_SchafstallEthan.xlsx
+++ b/docs/Journal-de-Travail_SchafstallEthan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\po01imj\Documents\GitHub\P-App-Webstore\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2D42472-4855-489A-BE60-56EFF9958295}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F563287-400F-4319-8122-78A1C234A0ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="42">
   <si>
     <t>Journal de travail</t>
   </si>
@@ -92,9 +92,6 @@
     <t>Auteur:</t>
   </si>
   <si>
-    <t>d</t>
-  </si>
-  <si>
     <t>P_I183</t>
   </si>
   <si>
@@ -138,6 +135,36 @@
   </si>
   <si>
     <t>Wasn't able to connect to DB using mysql package</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reading offical mysql2 node documentation </t>
+  </si>
+  <si>
+    <t>Making sure I fully understand how to use it.</t>
+  </si>
+  <si>
+    <t>Implimentation of the mysql2 package</t>
+  </si>
+  <si>
+    <t>Tests (connection to db, queries, inserts)</t>
+  </si>
+  <si>
+    <t>Fully working</t>
+  </si>
+  <si>
+    <t>Filled out JNLTRAV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Analysing api schema </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Testing the newly created modules </t>
+  </si>
+  <si>
+    <t>Fixing bugs with how the modules interact with each other/refract</t>
+  </si>
+  <si>
+    <t>Research on sql injection</t>
   </si>
 </sst>
 </file>
@@ -280,6 +307,50 @@
   </cellStyles>
   <dxfs count="13">
     <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <protection locked="0" hidden="0"/>
     </dxf>
     <dxf>
@@ -328,50 +399,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -386,7 +413,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{45CB4986-052B-374B-A8D0-88D41B362A09}" name="Table2" displayName="Table2" ref="A5:F531" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{45CB4986-052B-374B-A8D0-88D41B362A09}" name="Table2" displayName="Table2" ref="A5:F531" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
   <autoFilter ref="A5:F531" xr:uid="{45CB4986-052B-374B-A8D0-88D41B362A09}">
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -394,14 +421,14 @@
     <filterColumn colId="5" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{F92771A6-FBDD-734E-AD68-EEBCABBE5406}" name="Semaine" dataDxfId="5">
+    <tableColumn id="1" xr3:uid="{F92771A6-FBDD-734E-AD68-EEBCABBE5406}" name="Semaine" dataDxfId="10">
       <calculatedColumnFormula>IF(ISBLANK(B6),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{8A6A2217-ACA1-B64A-AACC-E62161ECEC47}" name="Jour" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{7CF180A9-4021-614A-ABFA-FD02FA7EE89D}" name="Temps [h]" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{DA59D006-464D-084D-8523-AF3DB167EDE2}" name="Type" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{5207D366-301C-BA4D-A840-0D62AE8890E1}" name="Description" dataDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{F7678D64-0216-D64A-A954-D1A966D4BF65}" name="Remarques/problèmes" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{8A6A2217-ACA1-B64A-AACC-E62161ECEC47}" name="Jour" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{7CF180A9-4021-614A-ABFA-FD02FA7EE89D}" name="Temps [h]" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{DA59D006-464D-084D-8523-AF3DB167EDE2}" name="Type" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{5207D366-301C-BA4D-A840-0D62AE8890E1}" name="Description" dataDxfId="6"/>
+    <tableColumn id="6" xr3:uid="{F7678D64-0216-D64A-A954-D1A966D4BF65}" name="Remarques/problèmes" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -595,9 +622,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:N531"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F16" sqref="F16"/>
+      <selection pane="bottomLeft" activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -631,14 +658,14 @@
         <v>16</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="5" t="s">
         <v>15</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J2" t="s">
         <v>7</v>
@@ -662,7 +689,7 @@
       </c>
       <c r="C3" s="22">
         <f>SUM(C5:C521)</f>
-        <v>8.3333333333333329E-2</v>
+        <v>0.11458333333333334</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>13</v>
@@ -708,7 +735,7 @@
         <v>11</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F6" s="11"/>
     </row>
@@ -726,10 +753,10 @@
         <v>10</v>
       </c>
       <c r="E7" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="11" t="s">
         <v>21</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -753,10 +780,10 @@
         <v>10</v>
       </c>
       <c r="E9" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="11" t="s">
         <v>23</v>
-      </c>
-      <c r="F9" s="11" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -773,10 +800,10 @@
         <v>7</v>
       </c>
       <c r="E10" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="11" t="s">
         <v>25</v>
-      </c>
-      <c r="F10" s="11" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -793,10 +820,10 @@
         <v>7</v>
       </c>
       <c r="E11" s="24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
@@ -820,7 +847,7 @@
         <v>7</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F13" s="11"/>
     </row>
@@ -838,10 +865,10 @@
         <v>9</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
@@ -858,10 +885,10 @@
         <v>10</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
@@ -871,36 +898,68 @@
       <c r="E16" s="11"/>
       <c r="F16" s="11"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="15" t="str">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="15">
         <f>IF(ISBLANK(B17),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
-        <v/>
-      </c>
-      <c r="B17" s="9"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B18" s="9"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
+        <v>16</v>
+      </c>
+      <c r="B17" s="9">
+        <v>45401</v>
+      </c>
+      <c r="C17" s="23">
+        <v>1.0416666666666666E-2</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="15">
+        <f>IF(ISBLANK(B18),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v>16</v>
+      </c>
+      <c r="B18" s="9">
+        <v>45401</v>
+      </c>
+      <c r="C18" s="23">
+        <v>1.0416666666666666E-2</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>34</v>
+      </c>
       <c r="F18" s="11"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="15" t="str">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="15">
         <f>IF(ISBLANK(B19),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
-        <v/>
-      </c>
-      <c r="B19" s="9"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="B19" s="9">
+        <v>45401</v>
+      </c>
+      <c r="C19" s="23">
+        <v>1.0416666666666666E-2</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="15" t="str">
         <f>IF(ISBLANK(B20),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -911,40 +970,58 @@
       <c r="E20" s="11"/>
       <c r="F20" s="11"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="15" t="str">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="15">
         <f>IF(ISBLANK(B21),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
-        <v/>
-      </c>
-      <c r="B21" s="9"/>
+        <v>16</v>
+      </c>
+      <c r="B21" s="9">
+        <v>45401</v>
+      </c>
       <c r="C21" s="10"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
+      <c r="D21" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>38</v>
+      </c>
       <c r="F21" s="11"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="15" t="str">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="15">
         <f>IF(ISBLANK(B22),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
-        <v/>
-      </c>
-      <c r="B22" s="9"/>
+        <v>16</v>
+      </c>
+      <c r="B22" s="9">
+        <v>45401</v>
+      </c>
       <c r="C22" s="10"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
+      <c r="D22" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>41</v>
+      </c>
       <c r="F22" s="11"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="15" t="str">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="15">
         <f>IF(ISBLANK(B23),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
-        <v/>
-      </c>
-      <c r="B23" s="9"/>
+        <v>16</v>
+      </c>
+      <c r="B23" s="9">
+        <v>45401</v>
+      </c>
       <c r="C23" s="10"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
+      <c r="D23" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>41</v>
+      </c>
       <c r="F23" s="11"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="15" t="str">
         <f>IF(ISBLANK(B24),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -955,43 +1032,58 @@
       <c r="E24" s="11"/>
       <c r="F24" s="11"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="15" t="str">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="15">
         <f>IF(ISBLANK(B25),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
-        <v/>
-      </c>
-      <c r="B25" s="9"/>
+        <v>16</v>
+      </c>
+      <c r="B25" s="9">
+        <v>45401</v>
+      </c>
       <c r="C25" s="10"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
+      <c r="D25" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>39</v>
+      </c>
       <c r="F25" s="11"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="15" t="str">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="15">
         <f>IF(ISBLANK(B26),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
-        <v/>
-      </c>
-      <c r="B26" s="9"/>
+        <v>16</v>
+      </c>
+      <c r="B26" s="9">
+        <v>45401</v>
+      </c>
       <c r="C26" s="10"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
+      <c r="D26" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>40</v>
+      </c>
       <c r="F26" s="11"/>
-      <c r="H26" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="15" t="str">
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="15">
         <f>IF(ISBLANK(B27),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
-        <v/>
-      </c>
-      <c r="B27" s="9"/>
+        <v>16</v>
+      </c>
+      <c r="B27" s="9">
+        <v>45401</v>
+      </c>
       <c r="C27" s="10"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
+      <c r="D27" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>37</v>
+      </c>
       <c r="F27" s="11"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="15" t="str">
         <f>IF(ISBLANK(B28),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1002,7 +1094,7 @@
       <c r="E28" s="11"/>
       <c r="F28" s="11"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="15" t="str">
         <f>IF(ISBLANK(B29),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1013,7 +1105,7 @@
       <c r="E29" s="11"/>
       <c r="F29" s="11"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="15" t="str">
         <f>IF(ISBLANK(B30),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1024,7 +1116,7 @@
       <c r="E30" s="11"/>
       <c r="F30" s="11"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="15" t="str">
         <f>IF(ISBLANK(B31),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1035,7 +1127,7 @@
       <c r="E31" s="11"/>
       <c r="F31" s="11"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="15" t="str">
         <f>IF(ISBLANK(B32),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6538,19 +6630,19 @@
   </sheetData>
   <sheetProtection insertHyperlinks="0" selectLockedCells="1" sort="0" autoFilter="0"/>
   <conditionalFormatting sqref="D6:D531">
-    <cfRule type="expression" dxfId="12" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="1" stopIfTrue="1">
       <formula>$D6="Meeting"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="2">
+    <cfRule type="expression" dxfId="3" priority="2">
       <formula>$D6="Documentation"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="2" priority="3" stopIfTrue="1">
       <formula>$D6="Test"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="4" stopIfTrue="1">
       <formula>$D6="Analyse"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="6" stopIfTrue="1">
       <formula>$D6="Dévelopement"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6568,26 +6660,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="be0d3259-a7ce-4623-88ec-81594dfcbc1c" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="99ffe1f3-7857-457f-add0-5bdef636f38d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D4F20F00DBE2EE49BE9523363A2DF18B" ma:contentTypeVersion="13" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="83ae57d85107fc73e8c281aedb059e49">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="99ffe1f3-7857-457f-add0-5bdef636f38d" xmlns:ns3="be0d3259-a7ce-4623-88ec-81594dfcbc1c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b000e6a26fbebedf4c24f086a5622afe" ns2:_="" ns3:_="">
     <xsd:import namespace="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
@@ -6810,10 +6882,41 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="be0d3259-a7ce-4623-88ec-81594dfcbc1c" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="99ffe1f3-7857-457f-add0-5bdef636f38d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BDECA689-F55E-43C8-8CEF-25DE741768EA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{146BE2DA-6117-4657-9EA0-437EBB1E64B8}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
+    <ds:schemaRef ds:uri="be0d3259-a7ce-4623-88ec-81594dfcbc1c"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -6830,20 +6933,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{146BE2DA-6117-4657-9EA0-437EBB1E64B8}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BDECA689-F55E-43C8-8CEF-25DE741768EA}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
-    <ds:schemaRef ds:uri="be0d3259-a7ce-4623-88ec-81594dfcbc1c"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/docs/Journal-de-Travail_SchafstallEthan.xlsx
+++ b/docs/Journal-de-Travail_SchafstallEthan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\po01imj\Documents\GitHub\P-App-Webstore\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F563287-400F-4319-8122-78A1C234A0ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BEB2817-11B1-4F86-BD71-8C4E334D0B9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
+    <workbookView xWindow="7200" yWindow="1035" windowWidth="21600" windowHeight="11385" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
   </bookViews>
   <sheets>
     <sheet name="Journal de travail" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="44">
   <si>
     <t>Journal de travail</t>
   </si>
@@ -165,6 +165,12 @@
   </si>
   <si>
     <t>Research on sql injection</t>
+  </si>
+  <si>
+    <t>ABSENT</t>
+  </si>
+  <si>
+    <t>Helped Lucas with a token error</t>
   </si>
 </sst>
 </file>
@@ -307,50 +313,6 @@
   </cellStyles>
   <dxfs count="13">
     <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <protection locked="0" hidden="0"/>
     </dxf>
     <dxf>
@@ -399,6 +361,50 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -413,7 +419,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{45CB4986-052B-374B-A8D0-88D41B362A09}" name="Table2" displayName="Table2" ref="A5:F531" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{45CB4986-052B-374B-A8D0-88D41B362A09}" name="Table2" displayName="Table2" ref="A5:F531" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
   <autoFilter ref="A5:F531" xr:uid="{45CB4986-052B-374B-A8D0-88D41B362A09}">
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -421,14 +427,14 @@
     <filterColumn colId="5" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{F92771A6-FBDD-734E-AD68-EEBCABBE5406}" name="Semaine" dataDxfId="10">
+    <tableColumn id="1" xr3:uid="{F92771A6-FBDD-734E-AD68-EEBCABBE5406}" name="Semaine" dataDxfId="5">
       <calculatedColumnFormula>IF(ISBLANK(B6),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{8A6A2217-ACA1-B64A-AACC-E62161ECEC47}" name="Jour" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{7CF180A9-4021-614A-ABFA-FD02FA7EE89D}" name="Temps [h]" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{DA59D006-464D-084D-8523-AF3DB167EDE2}" name="Type" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{5207D366-301C-BA4D-A840-0D62AE8890E1}" name="Description" dataDxfId="6"/>
-    <tableColumn id="6" xr3:uid="{F7678D64-0216-D64A-A954-D1A966D4BF65}" name="Remarques/problèmes" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{8A6A2217-ACA1-B64A-AACC-E62161ECEC47}" name="Jour" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{7CF180A9-4021-614A-ABFA-FD02FA7EE89D}" name="Temps [h]" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{DA59D006-464D-084D-8523-AF3DB167EDE2}" name="Type" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{5207D366-301C-BA4D-A840-0D62AE8890E1}" name="Description" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{F7678D64-0216-D64A-A954-D1A966D4BF65}" name="Remarques/problèmes" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -623,8 +629,8 @@
   <dimension ref="A1:N531"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E27" sqref="E27"/>
+      <pane ySplit="5" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -689,7 +695,7 @@
       </c>
       <c r="C3" s="22">
         <f>SUM(C5:C521)</f>
-        <v>0.11458333333333334</v>
+        <v>0.39583333333333326</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>13</v>
@@ -1095,35 +1101,53 @@
       <c r="F28" s="11"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="15" t="str">
+      <c r="A29" s="15">
         <f>IF(ISBLANK(B29),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
-        <v/>
-      </c>
-      <c r="B29" s="9"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="11"/>
+        <v>17</v>
+      </c>
+      <c r="B29" s="9">
+        <v>45408</v>
+      </c>
+      <c r="C29" s="10">
+        <v>1.0416666666666666E-2</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>7</v>
+      </c>
       <c r="E29" s="11"/>
       <c r="F29" s="11"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="15" t="str">
+      <c r="A30" s="15">
         <f>IF(ISBLANK(B30),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
-        <v/>
-      </c>
-      <c r="B30" s="9"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="11"/>
+        <v>17</v>
+      </c>
+      <c r="B30" s="9">
+        <v>45408</v>
+      </c>
+      <c r="C30" s="10">
+        <v>1.0416666666666666E-2</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>7</v>
+      </c>
       <c r="E30" s="11"/>
       <c r="F30" s="11"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="15" t="str">
+      <c r="A31" s="15">
         <f>IF(ISBLANK(B31),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
-        <v/>
-      </c>
-      <c r="B31" s="9"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="11"/>
+        <v>17</v>
+      </c>
+      <c r="B31" s="9">
+        <v>45408</v>
+      </c>
+      <c r="C31" s="10">
+        <v>1.0416666666666666E-2</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>8</v>
+      </c>
       <c r="E31" s="11"/>
       <c r="F31" s="11"/>
     </row>
@@ -1139,35 +1163,53 @@
       <c r="F32" s="11"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="15" t="str">
+      <c r="A33" s="15">
         <f>IF(ISBLANK(B33),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
-        <v/>
-      </c>
-      <c r="B33" s="9"/>
-      <c r="C33" s="10"/>
-      <c r="D33" s="11"/>
+        <v>17</v>
+      </c>
+      <c r="B33" s="9">
+        <v>45408</v>
+      </c>
+      <c r="C33" s="10">
+        <v>1.0416666666666666E-2</v>
+      </c>
+      <c r="D33" s="11" t="s">
+        <v>8</v>
+      </c>
       <c r="E33" s="11"/>
       <c r="F33" s="11"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="15" t="str">
+      <c r="A34" s="15">
         <f>IF(ISBLANK(B34),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
-        <v/>
-      </c>
-      <c r="B34" s="9"/>
-      <c r="C34" s="10"/>
-      <c r="D34" s="11"/>
+        <v>17</v>
+      </c>
+      <c r="B34" s="9">
+        <v>45408</v>
+      </c>
+      <c r="C34" s="10">
+        <v>1.0416666666666666E-2</v>
+      </c>
+      <c r="D34" s="11" t="s">
+        <v>8</v>
+      </c>
       <c r="E34" s="11"/>
       <c r="F34" s="11"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="15" t="str">
+      <c r="A35" s="15">
         <f>IF(ISBLANK(B35),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
-        <v/>
-      </c>
-      <c r="B35" s="9"/>
-      <c r="C35" s="10"/>
-      <c r="D35" s="11"/>
+        <v>17</v>
+      </c>
+      <c r="B35" s="9">
+        <v>45408</v>
+      </c>
+      <c r="C35" s="10">
+        <v>1.0416666666666666E-2</v>
+      </c>
+      <c r="D35" s="11" t="s">
+        <v>8</v>
+      </c>
       <c r="E35" s="11"/>
       <c r="F35" s="11"/>
     </row>
@@ -1183,36 +1225,54 @@
       <c r="F36" s="11"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="15" t="str">
+      <c r="A37" s="15">
         <f>IF(ISBLANK(B37),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
-        <v/>
-      </c>
-      <c r="B37" s="9"/>
-      <c r="C37" s="10"/>
-      <c r="D37" s="11"/>
+        <v>17</v>
+      </c>
+      <c r="B37" s="9">
+        <v>45408</v>
+      </c>
+      <c r="C37" s="10">
+        <v>1.0416666666666666E-2</v>
+      </c>
+      <c r="D37" s="11" t="s">
+        <v>8</v>
+      </c>
       <c r="E37" s="11"/>
       <c r="F37" s="11"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="15" t="str">
+      <c r="A38" s="15">
         <f>IF(ISBLANK(B38),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
-        <v/>
-      </c>
-      <c r="B38" s="9"/>
-      <c r="C38" s="10"/>
-      <c r="D38" s="11"/>
+        <v>17</v>
+      </c>
+      <c r="B38" s="9">
+        <v>45408</v>
+      </c>
+      <c r="C38" s="10">
+        <v>1.0416666666666666E-2</v>
+      </c>
+      <c r="D38" s="11" t="s">
+        <v>8</v>
+      </c>
       <c r="E38" s="11"/>
       <c r="F38" s="11"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="15" t="str">
+      <c r="A39" s="15">
         <f>IF(ISBLANK(B39),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
-        <v/>
-      </c>
-      <c r="B39" s="9"/>
-      <c r="C39" s="10"/>
+        <v>17</v>
+      </c>
+      <c r="B39" s="9">
+        <v>45408</v>
+      </c>
+      <c r="C39" s="10">
+        <v>1.0416666666666666E-2</v>
+      </c>
       <c r="D39" s="11"/>
-      <c r="E39" s="11"/>
+      <c r="E39" s="11" t="s">
+        <v>43</v>
+      </c>
       <c r="F39" s="11"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -1227,25 +1287,37 @@
       <c r="F40" s="11"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="15" t="str">
+      <c r="A41" s="15">
         <f>IF(ISBLANK(B41),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
-        <v/>
-      </c>
-      <c r="B41" s="9"/>
-      <c r="C41" s="10"/>
+        <v>18</v>
+      </c>
+      <c r="B41" s="9">
+        <v>45415</v>
+      </c>
+      <c r="C41" s="10">
+        <v>9.375E-2</v>
+      </c>
       <c r="D41" s="11"/>
-      <c r="E41" s="11"/>
+      <c r="E41" s="11" t="s">
+        <v>42</v>
+      </c>
       <c r="F41" s="11"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="15" t="str">
+      <c r="A42" s="15">
         <f>IF(ISBLANK(B42),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
-        <v/>
-      </c>
-      <c r="B42" s="9"/>
-      <c r="C42" s="10"/>
+        <v>20</v>
+      </c>
+      <c r="B42" s="9">
+        <v>45429</v>
+      </c>
+      <c r="C42" s="10">
+        <v>9.375E-2</v>
+      </c>
       <c r="D42" s="11"/>
-      <c r="E42" s="11"/>
+      <c r="E42" s="11" t="s">
+        <v>42</v>
+      </c>
       <c r="F42" s="11"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -6630,19 +6702,19 @@
   </sheetData>
   <sheetProtection insertHyperlinks="0" selectLockedCells="1" sort="0" autoFilter="0"/>
   <conditionalFormatting sqref="D6:D531">
-    <cfRule type="expression" dxfId="4" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="12" priority="1" stopIfTrue="1">
       <formula>$D6="Meeting"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="2">
+    <cfRule type="expression" dxfId="11" priority="2">
       <formula>$D6="Documentation"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="10" priority="3" stopIfTrue="1">
       <formula>$D6="Test"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="4" stopIfTrue="1">
       <formula>$D6="Analyse"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="8" priority="6" stopIfTrue="1">
       <formula>$D6="Dévelopement"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6660,6 +6732,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="be0d3259-a7ce-4623-88ec-81594dfcbc1c" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="99ffe1f3-7857-457f-add0-5bdef636f38d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D4F20F00DBE2EE49BE9523363A2DF18B" ma:contentTypeVersion="13" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="83ae57d85107fc73e8c281aedb059e49">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="99ffe1f3-7857-457f-add0-5bdef636f38d" xmlns:ns3="be0d3259-a7ce-4623-88ec-81594dfcbc1c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b000e6a26fbebedf4c24f086a5622afe" ns2:_="" ns3:_="">
     <xsd:import namespace="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
@@ -6882,27 +6974,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="be0d3259-a7ce-4623-88ec-81594dfcbc1c" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="99ffe1f3-7857-457f-add0-5bdef636f38d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BDECA689-F55E-43C8-8CEF-25DE741768EA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8EB0028C-89CE-4553-AB94-94DC6E832369}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="be0d3259-a7ce-4623-88ec-81594dfcbc1c"/>
+    <ds:schemaRef ds:uri="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{146BE2DA-6117-4657-9EA0-437EBB1E64B8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6919,23 +7010,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8EB0028C-89CE-4553-AB94-94DC6E832369}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="be0d3259-a7ce-4623-88ec-81594dfcbc1c"/>
-    <ds:schemaRef ds:uri="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BDECA689-F55E-43C8-8CEF-25DE741768EA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>